--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74917.82369398738</v>
+        <v>-39668.52419059019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1670816.971226108</v>
+        <v>2223789.381546549</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26932965.80213343</v>
+        <v>26084250.44721131</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4120079.105770957</v>
+        <v>4448922.13275145</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L11" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8857,7 +8859,7 @@
         <v>46.41251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>44.67260637956007</v>
       </c>
       <c r="O13" t="n">
         <v>42.39083325512944</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.96511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850284</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>17.08626916697543</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>78.17053334824146</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>83.66766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.08626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.62009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10586,13 +10588,13 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>67.64282070579191</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39.27687031530112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>11.83563415094341</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.96511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.08626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>2.632694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11230,7 +11232,7 @@
         <v>44.67260637956007</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>35.10170646165069</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.96511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>102.8381142892153</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>17.08626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.632694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>32.78366918850629</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.2768703153011</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -11461,13 +11463,13 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>46.41251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>44.67260637956007</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>42.39083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>35.10170646165069</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K11" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.3382672065391</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R11" t="n">
-        <v>201.8898204488762</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S11" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,22 +23351,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J12" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R12" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S12" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L13" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M13" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N13" t="n">
-        <v>81.48840304191189</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O13" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P13" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R13" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.3382672065391</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>201.8898204488762</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,22 +23588,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K17" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R17" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S17" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,22 +23825,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J18" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K18" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R18" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S18" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.3382672065391</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>201.8898204488762</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,22 +24062,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>90.67542824598098</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K23" t="n">
-        <v>42.5588432808045</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.3382672065391</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R23" t="n">
-        <v>201.8898204488762</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,22 +24299,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K26" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R26" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S26" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,22 +24536,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K29" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>117.6841293060643</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R29" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S29" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,22 +24773,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J30" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K30" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R30" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S30" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>34.01646518147885</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.3382672065391</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R32" t="n">
-        <v>201.8898204488762</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S32" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,22 +25010,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.37972027109998</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R33" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.0568960504157</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>34.01646518147888</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.3382672065391</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>201.8898204488763</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,22 +25247,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>75.2064110293488</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
-        <v>24.50430953720272</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>81.01899978470318</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>48.95113428673177</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>36.81579666235183</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K38" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R38" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S38" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,22 +25484,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
-        <v>69.11625642831203</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.99981508242075</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>90.67542824598098</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K41" t="n">
-        <v>42.5588432808045</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>104.3382672065391</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R41" t="n">
-        <v>201.8898204488762</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S41" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,22 +25721,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>107.9900802178551</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
-        <v>69.11625642831203</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R42" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>105.2757017540986</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>90.67542824598098</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K44" t="n">
-        <v>126.8366505493073</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>117.6841293060643</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.5401647781143</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>201.8898204488762</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S44" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,22 +25958,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>114.6725073984828</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J45" t="n">
-        <v>75.20641102934879</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3552948050415807</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>48.95113428673176</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N46" t="n">
-        <v>36.81579666235181</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O46" t="n">
-        <v>62.88486849896913</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P46" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461659.9703507402</v>
+        <v>483979.3550813029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>463536.2198186819</v>
+        <v>483979.3550813029</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365109.2020844108</v>
+        <v>436361.6634842422</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>454910.5550112845</v>
+        <v>481075.6574016297</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463536.2198186819</v>
+        <v>455742.5452112989</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424391.1228558145</v>
+        <v>464881.5745666474</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365109.2020844108</v>
+        <v>445803.5186595617</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>445487.9100869677</v>
+        <v>457511.2495646302</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>444021.3997158744</v>
+        <v>487772.3818970807</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382940.6496266764</v>
+        <v>446824.2704206933</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418316.5733762132</v>
+        <v>452213.3145610126</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403514.3262947802</v>
+        <v>464337.3147688021</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>21023.75692077818</v>
       </c>
       <c r="E2" t="n">
-        <v>66071.66035086008</v>
+        <v>70292.92301841635</v>
       </c>
       <c r="F2" t="n">
-        <v>66312.89242530971</v>
+        <v>70292.92301841633</v>
       </c>
       <c r="G2" t="n">
-        <v>53657.99014518913</v>
+        <v>64170.64838450852</v>
       </c>
       <c r="H2" t="n">
-        <v>65203.87837864432</v>
+        <v>69919.5904596012</v>
       </c>
       <c r="I2" t="n">
-        <v>66312.89242530969</v>
+        <v>66662.47603513011</v>
       </c>
       <c r="J2" t="n">
-        <v>61279.95138722675</v>
+        <v>67837.49409510348</v>
       </c>
       <c r="K2" t="n">
-        <v>53657.99014518913</v>
+        <v>65384.60119276386</v>
       </c>
       <c r="L2" t="n">
-        <v>63992.39545980358</v>
+        <v>66889.88088055844</v>
       </c>
       <c r="M2" t="n">
-        <v>63803.8441263773</v>
+        <v>70780.59789473063</v>
       </c>
       <c r="N2" t="n">
-        <v>55950.60482919467</v>
+        <v>65515.84070490937</v>
       </c>
       <c r="O2" t="n">
-        <v>60498.93788270656</v>
+        <v>66208.71780866472</v>
       </c>
       <c r="P2" t="n">
-        <v>58595.79182937946</v>
+        <v>67767.51783538052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306429.7335513992</v>
+        <v>375782.5398672876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>21023.75692077818</v>
       </c>
       <c r="E4" t="n">
-        <v>13840.93908379974</v>
+        <v>7549.543512036627</v>
       </c>
       <c r="F4" t="n">
-        <v>14082.17115824936</v>
+        <v>7549.543512036627</v>
       </c>
       <c r="G4" t="n">
         <v>1427.2688781288</v>
       </c>
       <c r="H4" t="n">
-        <v>12973.15711158399</v>
+        <v>7176.210953221487</v>
       </c>
       <c r="I4" t="n">
-        <v>14082.17115824936</v>
+        <v>3919.096528750377</v>
       </c>
       <c r="J4" t="n">
-        <v>9049.230120166423</v>
+        <v>5094.114588723767</v>
       </c>
       <c r="K4" t="n">
-        <v>1427.2688781288</v>
+        <v>2641.221686384146</v>
       </c>
       <c r="L4" t="n">
-        <v>11761.67419274326</v>
+        <v>4146.501374178699</v>
       </c>
       <c r="M4" t="n">
-        <v>11573.12285931699</v>
+        <v>8037.218388350901</v>
       </c>
       <c r="N4" t="n">
-        <v>3719.883562134346</v>
+        <v>2772.461198529639</v>
       </c>
       <c r="O4" t="n">
-        <v>8268.21661564623</v>
+        <v>3465.338302284986</v>
       </c>
       <c r="P4" t="n">
-        <v>6365.070562319128</v>
+        <v>5024.138329000794</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-262513.8532687769</v>
+        <v>-323235.8603596717</v>
       </c>
       <c r="F6" t="n">
-        <v>43915.88028262227</v>
+        <v>52546.67950761586</v>
       </c>
       <c r="G6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761588</v>
       </c>
       <c r="H6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="I6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761589</v>
       </c>
       <c r="J6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="K6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="L6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.6795076159</v>
       </c>
       <c r="M6" t="n">
-        <v>43915.88028262224</v>
+        <v>52546.67950761589</v>
       </c>
       <c r="N6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761589</v>
       </c>
       <c r="O6" t="n">
-        <v>43915.88028262226</v>
+        <v>52546.67950761589</v>
       </c>
       <c r="P6" t="n">
-        <v>43915.88028262226</v>
+        <v>52546.67950761589</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R11" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M12" t="n">
         <v>207.8710246109518</v>
@@ -31853,25 +31855,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I13" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M15" t="n">
         <v>207.8710246109518</v>
@@ -32090,25 +32092,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M18" t="n">
         <v>207.8710246109518</v>
@@ -32327,25 +32329,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
         <v>207.8710246109518</v>
@@ -32564,25 +32566,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M24" t="n">
         <v>207.8710246109518</v>
@@ -32801,25 +32803,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M27" t="n">
         <v>207.8710246109518</v>
@@ -33038,25 +33040,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M30" t="n">
         <v>207.8710246109518</v>
@@ -33275,25 +33277,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M33" t="n">
         <v>207.8710246109518</v>
@@ -33512,25 +33514,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.5333255238464</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>220.4941269860173</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>96.31775943731652</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>6.712132480637621</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8204014819334779</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>77.50994878214496</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M36" t="n">
         <v>207.8710246109518</v>
@@ -33749,25 +33751,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>50.93685692215052</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>6.115140985697429</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>20.68393290458802</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>79.90951104009515</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>107.8153129001847</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2517057384916</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M39" t="n">
         <v>207.8710246109518</v>
@@ -33986,25 +33988,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M42" t="n">
         <v>207.8710246109518</v>
@@ -34223,25 +34225,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M45" t="n">
         <v>207.8710246109518</v>
@@ -34460,25 +34462,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39668.52419059019</v>
+        <v>-188489.9564523528</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2223789.381546549</v>
+        <v>1613840.759602689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26084250.44721131</v>
+        <v>25474301.82526745</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4448922.13275145</v>
+        <v>4763917.355789104</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>121.083316575</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11.83563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
         <v>67.78072631241469</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,16 +8932,16 @@
         <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
         <v>67.78072631241469</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>11.83563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
         <v>67.78072631241469</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
         <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>17.08626916697543</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
         <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
         <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>11.83563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10594,13 +10594,13 @@
         <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
         <v>67.78072631241469</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
         <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>11.83563415094341</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
         <v>67.78072631241469</v>
@@ -11320,7 +11320,7 @@
         <v>55.20189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -11463,13 +11463,13 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>44.67260637956007</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>35.10170646165069</v>
@@ -22883,34 +22883,34 @@
         <v>145.0346254522244</v>
       </c>
       <c r="I6" t="n">
-        <v>145.55148075</v>
+        <v>142.9187864913679</v>
       </c>
       <c r="J6" t="n">
-        <v>185.500029</v>
+        <v>152.7163598114938</v>
       </c>
       <c r="K6" t="n">
-        <v>201.5931045</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L6" t="n">
-        <v>202.635780428066</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M6" t="n">
-        <v>207.8710246109518</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N6" t="n">
-        <v>192.087253921875</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O6" t="n">
-        <v>208.5470075</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P6" t="n">
-        <v>195.937570843458</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.7233446008065</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R6" t="n">
-        <v>213.0562745472973</v>
+        <v>201.2206403963539</v>
       </c>
       <c r="S6" t="n">
         <v>222.0319792704162</v>
@@ -23287,22 +23287,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
         <v>180.0906730958467</v>
@@ -23378,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>21.67813434720469</v>
@@ -23442,10 +23442,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
         <v>24.54979951156312</v>
@@ -23524,16 +23524,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>21.67813434720469</v>
@@ -23755,31 +23755,31 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
         <v>224.5411397984024</v>
@@ -23831,13 +23831,13 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>110.912353612084</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>90.44761655696213</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,13 +23852,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.29822915852546</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>150.5911173798657</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
         <v>203.3445011265852</v>
@@ -23998,16 +23998,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -24074,7 +24074,7 @@
         <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>21.67813434720469</v>
@@ -24229,28 +24229,28 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
         <v>180.0906730958467</v>
@@ -24311,7 +24311,7 @@
         <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>21.67813434720469</v>
@@ -24466,31 +24466,31 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
         <v>224.5411397984024</v>
@@ -24548,7 +24548,7 @@
         <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>21.67813434720469</v>
@@ -24703,31 +24703,31 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
         <v>224.5411397984024</v>
@@ -24779,13 +24779,13 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>110.912353612084</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>90.44761655696213</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,13 +24800,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.29822915852546</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>150.5911173798657</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
         <v>203.3445011265852</v>
@@ -24946,25 +24946,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
         <v>224.5411397984024</v>
@@ -25022,7 +25022,7 @@
         <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,10 +25037,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.29822915852546</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
         <v>138.7554832289223</v>
@@ -25186,13 +25186,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -25259,7 +25259,7 @@
         <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>21.67813434720469</v>
@@ -25414,31 +25414,31 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.064787408095</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R38" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
         <v>224.5411397984024</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>21.67813434720469</v>
@@ -25575,10 +25575,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M40" t="n">
         <v>24.54979951156312</v>
@@ -25651,31 +25651,31 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.064787408095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
         <v>224.5411397984024</v>
@@ -25748,10 +25748,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.29822915852546</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
         <v>138.7554832289223</v>
@@ -25888,22 +25888,22 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>105.186778144686</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>197.1769422628221</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
         <v>224.5411397984024</v>
@@ -25964,13 +25964,13 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>110.912353612084</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>90.44761655696213</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,7 +25985,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>21.67813434720469</v>
@@ -26055,13 +26055,13 @@
         <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>70.962311348019</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>57.66727746803184</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>83.27303672572057</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
         <v>64.31249240386273</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>111728.8540612225</v>
+        <v>163518.1093838304</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483979.3550813029</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483979.3550813029</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436361.6634842422</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481075.6574016297</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>455742.5452112989</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>464881.5745666474</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>445803.5186595617</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457511.2495646302</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487772.3818970807</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>446824.2704206933</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452213.3145610126</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464337.3147688021</v>
+        <v>494638.0817280248</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>21023.75692077818</v>
       </c>
       <c r="C2" t="n">
-        <v>14365.13837930003</v>
+        <v>21023.75692077818</v>
       </c>
       <c r="D2" t="n">
         <v>21023.75692077818</v>
       </c>
       <c r="E2" t="n">
-        <v>70292.92301841635</v>
+        <v>71663.33073013772</v>
       </c>
       <c r="F2" t="n">
-        <v>70292.92301841633</v>
+        <v>71663.33073013772</v>
       </c>
       <c r="G2" t="n">
-        <v>64170.64838450852</v>
+        <v>71663.33073013772</v>
       </c>
       <c r="H2" t="n">
-        <v>69919.5904596012</v>
+        <v>71663.33073013775</v>
       </c>
       <c r="I2" t="n">
-        <v>66662.47603513011</v>
+        <v>71663.33073013775</v>
       </c>
       <c r="J2" t="n">
-        <v>67837.49409510348</v>
+        <v>71663.33073013772</v>
       </c>
       <c r="K2" t="n">
-        <v>65384.60119276386</v>
+        <v>71663.33073013772</v>
       </c>
       <c r="L2" t="n">
-        <v>66889.88088055844</v>
+        <v>71663.33073013775</v>
       </c>
       <c r="M2" t="n">
-        <v>70780.59789473063</v>
+        <v>71663.33073013774</v>
       </c>
       <c r="N2" t="n">
-        <v>65515.84070490937</v>
+        <v>71663.33073013774</v>
       </c>
       <c r="O2" t="n">
-        <v>66208.71780866472</v>
+        <v>71663.33073013774</v>
       </c>
       <c r="P2" t="n">
-        <v>67767.51783538052</v>
+        <v>71663.33073013774</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>21023.75692077818</v>
       </c>
       <c r="C4" t="n">
-        <v>14365.13837930003</v>
+        <v>21023.75692077818</v>
       </c>
       <c r="D4" t="n">
         <v>21023.75692077818</v>
       </c>
       <c r="E4" t="n">
-        <v>7549.543512036627</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="F4" t="n">
-        <v>7549.543512036627</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="G4" t="n">
-        <v>1427.2688781288</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="H4" t="n">
-        <v>7176.210953221487</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="I4" t="n">
-        <v>3919.096528750377</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="J4" t="n">
-        <v>5094.114588723767</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="K4" t="n">
-        <v>2641.221686384146</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="L4" t="n">
-        <v>4146.501374178699</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="M4" t="n">
-        <v>8037.218388350901</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="N4" t="n">
-        <v>2772.461198529639</v>
+        <v>8919.951223758011</v>
       </c>
       <c r="O4" t="n">
-        <v>3465.338302284986</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="P4" t="n">
-        <v>5024.138329000794</v>
+        <v>8919.951223758009</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55111.76333323243</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55111.76333323243</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55111.76333323243</v>
       </c>
       <c r="E6" t="n">
-        <v>-323235.8603596717</v>
+        <v>-339093.4043807531</v>
       </c>
       <c r="F6" t="n">
-        <v>52546.67950761586</v>
+        <v>36689.1354865345</v>
       </c>
       <c r="G6" t="n">
-        <v>52546.67950761588</v>
+        <v>36689.1354865345</v>
       </c>
       <c r="H6" t="n">
-        <v>52546.67950761587</v>
+        <v>36689.13548653453</v>
       </c>
       <c r="I6" t="n">
-        <v>52546.67950761589</v>
+        <v>36689.13548653453</v>
       </c>
       <c r="J6" t="n">
-        <v>52546.67950761587</v>
+        <v>36689.1354865345</v>
       </c>
       <c r="K6" t="n">
-        <v>52546.67950761587</v>
+        <v>36689.1354865345</v>
       </c>
       <c r="L6" t="n">
-        <v>52546.6795076159</v>
+        <v>36689.13548653453</v>
       </c>
       <c r="M6" t="n">
-        <v>52546.67950761589</v>
+        <v>36689.13548653451</v>
       </c>
       <c r="N6" t="n">
-        <v>52546.67950761589</v>
+        <v>36689.1354865345</v>
       </c>
       <c r="O6" t="n">
-        <v>52546.67950761589</v>
+        <v>36689.13548653451</v>
       </c>
       <c r="P6" t="n">
-        <v>52546.67950761589</v>
+        <v>36689.13548653451</v>
       </c>
     </row>
   </sheetData>
@@ -31782,7 +31782,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
         <v>118.1169067903461</v>
@@ -31791,7 +31791,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
         <v>0.1504284726201847</v>
@@ -31873,7 +31873,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
         <v>25.36523055791157</v>
@@ -31922,7 +31922,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
         <v>125.3999336590344</v>
@@ -33915,7 +33915,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R38" t="n">
         <v>118.1169067903461</v>
@@ -33924,7 +33924,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U38" t="n">
         <v>0.1504284726201847</v>
@@ -34006,7 +34006,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I40" t="n">
         <v>25.36523055791157</v>
@@ -34055,7 +34055,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L40" t="n">
         <v>125.3999336590344</v>
